--- a/static/uploads/scores.xlsx
+++ b/static/uploads/scores.xlsx
@@ -1261,7 +1261,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="7"/>

--- a/static/uploads/scores.xlsx
+++ b/static/uploads/scores.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>roll_no</t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>rani</t>
+  </si>
+  <si>
+    <t>720723207045</t>
+  </si>
+  <si>
+    <t>sanjay</t>
   </si>
 </sst>
 </file>
@@ -1258,13 +1264,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="22.4545454545455" customWidth="1"/>
     <col min="2" max="2" width="17.9090909090909" customWidth="1"/>
@@ -1508,6 +1514,35 @@
         <v>65</v>
       </c>
     </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>78</v>
+      </c>
+      <c r="D9">
+        <v>87</v>
+      </c>
+      <c r="E9">
+        <v>86</v>
+      </c>
+      <c r="F9">
+        <v>93</v>
+      </c>
+      <c r="G9">
+        <v>88</v>
+      </c>
+      <c r="H9">
+        <v>98</v>
+      </c>
+      <c r="I9">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
